--- a/biology/Médecine/James_Glover_(psychanalyste)/James_Glover_(psychanalyste).xlsx
+++ b/biology/Médecine/James_Glover_(psychanalyste)/James_Glover_(psychanalyste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">James Glover, né le 15 juillet 1882 à Lesmahagow (Lanarkshire), en Écosse, et mort le 25 août 1926, est un médecin et psychanalyste écossais. 
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">James Glover fait ses études de médecine à Glasgow, puis exerce quelques années au Brésil. Il rentre en Grande-Bretagne et se spécialise en ORL. En 1918, il commence à exercer à la Medico-Psychological Clinic de Brunswick Square, premier établissement de soin liée à la psychanalyse, avant d’entreprendre une analyse didactique avec Karl Abraham, à l'Institut psychanalytique de Berlin. Son frère Edward Glover reprendra ses travaux après sa mort prématurée du fait du diabète, à 44 ans.
 </t>
@@ -542,10 +556,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) « The Significance of the Mouth in Psycho-Analysis », British Journal of Medical Psychology, vol. 4, no 2, avril 1924, p. 134-155, [lire en ligne]
-Ernest Jones (dir.), Social aspects of psycho-analysis : Lectures delivered under the auspices of the Sociological Society (contributions de  Ernest Jones, James Glover, J. C. Flügel, M. D. Eder, Barbara Low &amp; Ella Freeman Sharpe), Londres, Williams &amp; Norgate, 1924, 240 p. (OCLC 903877435)[1]
+Ernest Jones (dir.), Social aspects of psycho-analysis : Lectures delivered under the auspices of the Sociological Society (contributions de  Ernest Jones, James Glover, J. C. Flügel, M. D. Eder, Barbara Low &amp; Ella Freeman Sharpe), Londres, Williams &amp; Norgate, 1924, 240 p. (OCLC 903877435)
 (en) « The Conception of Sexuality », British Journal of Medical Psychology, vol. 5, no 3, août 1925, p. 175-188, [lire en ligne].
 (en) « Divergent tendencies in psychotherapy », British Journal of Medical Psychology, vol. 6, no 2, 1926, p. 93-109 [lire en ligne] (republié en mars 1962, vol. 35, no 1, p. 3-14, [lire en ligne]
 (en) « Notes on an unusual form of perversion », International Journal of Psychoanalysis, vol. 8, p. 10-24, 1927 (trad. fr. « Notes sur une forme rare de perversion », in Denise Bouchet-Kervella, Jacques Bouhsira et Martine Janin-Oudinot (dir.), Le Fétichisme, PUF, coll. « Monographies et débats de psychanalyse », 2012, p. 187-204, [lire en ligne]).</t>
